--- a/volatilities_per_city_per_yeasr.xlsx
+++ b/volatilities_per_city_per_yeasr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\skripsi_carin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95BFF6B-D8B9-4CC8-BDF0-B2E81DB1A682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{662DD537-FD69-4317-8B1B-6B92BD93242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5456,11 +5456,11 @@
         <v>7.75</v>
       </c>
       <c r="J98" s="3">
-        <f t="shared" ref="J98:J129" si="6">(H98-I98)</f>
+        <f t="shared" ref="J98:J104" si="6">(H98-I98)</f>
         <v>7.2799999999999994</v>
       </c>
       <c r="K98" s="3">
-        <f t="shared" ref="K98:K129" si="7">ABS(J98)</f>
+        <f t="shared" ref="K98:K104" si="7">ABS(J98)</f>
         <v>7.2799999999999994</v>
       </c>
       <c r="L98" s="2" cm="1">
@@ -14690,8 +14690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF34DA4-C6EA-4593-B988-6F5C81F56E45}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14741,1066 +14741,1066 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
-        <v>1.59</v>
+        <v>4.79</v>
       </c>
       <c r="C2" s="2">
-        <v>8.3800000000000008</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="D2" s="2">
-        <v>33.08</v>
+        <v>13.67</v>
       </c>
       <c r="E2" s="2">
-        <v>1.69</v>
+        <v>7.45</v>
       </c>
       <c r="F2" s="2">
-        <v>1.64</v>
+        <v>3.25</v>
       </c>
       <c r="G2" s="2">
-        <v>3.79</v>
+        <v>2.06</v>
       </c>
       <c r="H2" s="2">
-        <v>34.21</v>
+        <v>16.28</v>
       </c>
       <c r="I2" s="2">
-        <v>4.83</v>
+        <v>2.33</v>
       </c>
       <c r="J2" s="2">
-        <v>29.380000000000003</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>110</v>
+        <v>13.950000000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <v>13.950000000000001</v>
       </c>
       <c r="L2" s="2">
-        <v>0.84630000000000005</v>
+        <v>0.87019999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="C3" s="2">
-        <v>8.27</v>
+        <v>11.56</v>
       </c>
       <c r="D3" s="2">
-        <v>30.24</v>
+        <v>10.92</v>
       </c>
       <c r="E3" s="2">
-        <v>1.1000000000000001</v>
+        <v>6.57</v>
       </c>
       <c r="F3" s="2">
-        <v>1.35</v>
+        <v>7.78</v>
       </c>
       <c r="G3" s="2">
-        <v>0.67</v>
+        <v>2.39</v>
       </c>
       <c r="H3" s="2">
-        <v>28.92</v>
+        <v>15.03</v>
       </c>
       <c r="I3" s="2">
-        <v>2.5</v>
+        <v>7.75</v>
       </c>
       <c r="J3" s="2">
-        <v>26.42</v>
+        <v>7.2799999999999994</v>
       </c>
       <c r="K3" s="2">
-        <v>26.42</v>
+        <v>7.2799999999999994</v>
       </c>
       <c r="L3" s="2">
-        <v>0.88859999999999995</v>
+        <v>0.92090000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2">
-        <v>1.44</v>
+        <v>2.04</v>
       </c>
       <c r="C4" s="2">
-        <v>6.15</v>
+        <v>5.86</v>
       </c>
       <c r="D4" s="2">
-        <v>10.73</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>0.22</v>
+        <v>6.45</v>
       </c>
       <c r="F4" s="2">
-        <v>1.43</v>
+        <v>2.59</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="H4" s="2">
-        <v>24.01</v>
+        <v>12.9</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="J4" s="2">
-        <v>24.01</v>
+        <v>10.77</v>
       </c>
       <c r="K4" s="2">
-        <v>24.01</v>
+        <v>10.77</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>0.91100000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>7.86</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D5" s="2">
-        <v>15</v>
+        <v>7.83</v>
       </c>
       <c r="E5" s="2">
-        <v>1.56</v>
+        <v>6.04</v>
       </c>
       <c r="F5" s="2">
-        <v>1.47</v>
+        <v>5.26</v>
       </c>
       <c r="G5" s="2">
-        <v>1.94</v>
+        <v>0.63</v>
       </c>
       <c r="H5" s="2">
-        <v>22.61</v>
+        <v>6.32</v>
       </c>
       <c r="I5" s="2">
-        <v>2.2799999999999998</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J5" s="2">
-        <v>20.329999999999998</v>
+        <v>2.17</v>
       </c>
       <c r="K5" s="2">
-        <v>20.329999999999998</v>
+        <v>2.17</v>
       </c>
       <c r="L5" s="2">
-        <v>0.92459999999999998</v>
+        <v>0.94179999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>8.8800000000000008</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D6" s="2">
-        <v>14.9</v>
+        <v>7.83</v>
       </c>
       <c r="E6" s="2">
-        <v>1.43</v>
+        <v>6.04</v>
       </c>
       <c r="F6" s="2">
-        <v>4.96</v>
+        <v>5.26</v>
       </c>
       <c r="G6" s="2">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="H6" s="2">
-        <v>23.69</v>
+        <v>6.32</v>
       </c>
       <c r="I6" s="2">
-        <v>3.46</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="J6" s="2">
-        <v>20.23</v>
+        <v>2.17</v>
       </c>
       <c r="K6" s="2">
-        <v>20.23</v>
+        <v>2.17</v>
       </c>
       <c r="L6" s="2">
-        <v>0.71730000000000005</v>
+        <v>0.94179999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2">
-        <v>1.19</v>
+        <v>3.95</v>
       </c>
       <c r="C7" s="2">
-        <v>8.8800000000000008</v>
+        <v>11.27</v>
       </c>
       <c r="D7" s="2">
-        <v>14.9</v>
+        <v>12.24</v>
       </c>
       <c r="E7" s="2">
-        <v>1.43</v>
+        <v>5.23</v>
       </c>
       <c r="F7" s="2">
-        <v>4.96</v>
+        <v>4.03</v>
       </c>
       <c r="G7" s="2">
-        <v>5.87</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H7" s="2">
-        <v>23.69</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="I7" s="2">
-        <v>3.46</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="J7" s="2">
-        <v>20.23</v>
+        <v>11.580000000000002</v>
       </c>
       <c r="K7" s="2">
-        <v>20.23</v>
+        <v>11.580000000000002</v>
       </c>
       <c r="L7" s="2">
-        <v>0.71730000000000005</v>
+        <v>0.81640000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2">
-        <v>17.100000000000001</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="C8" s="2">
-        <v>9.83</v>
+        <v>10.28</v>
       </c>
       <c r="D8" s="2">
-        <v>12.29</v>
+        <v>11.35</v>
       </c>
       <c r="E8" s="2">
-        <v>5.09</v>
+        <v>5.12</v>
       </c>
       <c r="F8" s="2">
-        <v>1.61</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="G8" s="2">
-        <v>2.77</v>
+        <v>1.5</v>
       </c>
       <c r="H8" s="2">
-        <v>23.37</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="I8" s="2">
-        <v>3.15</v>
+        <v>6.75</v>
       </c>
       <c r="J8" s="2">
-        <v>20.220000000000002</v>
+        <v>9.9400000000000013</v>
       </c>
       <c r="K8" s="2">
-        <v>20.220000000000002</v>
+        <v>9.9400000000000013</v>
       </c>
       <c r="L8" s="2">
-        <v>0.87519999999999998</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B9" s="2">
-        <v>0</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>11.89</v>
+        <v>9.83</v>
       </c>
       <c r="D9" s="2">
-        <v>10.38</v>
+        <v>12.29</v>
       </c>
       <c r="E9" s="2">
-        <v>2.67</v>
+        <v>5.09</v>
       </c>
       <c r="F9" s="2">
-        <v>1.19</v>
+        <v>1.61</v>
       </c>
       <c r="G9" s="2">
-        <v>0.87</v>
+        <v>2.77</v>
       </c>
       <c r="H9" s="2">
-        <v>19.739999999999998</v>
+        <v>23.37</v>
       </c>
       <c r="I9" s="2">
-        <v>0.87</v>
+        <v>3.15</v>
       </c>
       <c r="J9" s="2">
-        <v>18.869999999999997</v>
+        <v>20.220000000000002</v>
       </c>
       <c r="K9" s="2">
-        <v>18.869999999999997</v>
+        <v>20.220000000000002</v>
       </c>
       <c r="L9" s="2">
-        <v>0.83879999999999999</v>
+        <v>0.87519999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>1.43</v>
+        <v>2.34</v>
       </c>
       <c r="C10" s="2">
-        <v>7.33</v>
+        <v>10.6</v>
       </c>
       <c r="D10" s="2">
-        <v>18.190000000000001</v>
+        <v>14.47</v>
       </c>
       <c r="E10" s="2">
-        <v>0.82</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="F10" s="2">
-        <v>0.9</v>
+        <v>3.08</v>
       </c>
       <c r="G10" s="2">
-        <v>2.21</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H10" s="2">
-        <v>21.43</v>
+        <v>16.46</v>
       </c>
       <c r="I10" s="2">
-        <v>3.13</v>
+        <v>4.54</v>
       </c>
       <c r="J10" s="2">
-        <v>18.3</v>
+        <v>11.920000000000002</v>
       </c>
       <c r="K10" s="2">
-        <v>18.3</v>
+        <v>11.920000000000002</v>
       </c>
       <c r="L10" s="2">
-        <v>0.82230000000000003</v>
+        <v>0.92479999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2">
-        <v>3.12</v>
+        <v>0.32</v>
       </c>
       <c r="C11" s="2">
-        <v>3.74</v>
+        <v>6.43</v>
       </c>
       <c r="D11" s="2">
-        <v>9.39</v>
+        <v>14.01</v>
       </c>
       <c r="E11" s="2">
-        <v>2.0299999999999998</v>
+        <v>4.28</v>
       </c>
       <c r="F11" s="2">
-        <v>0.95</v>
+        <v>1.7</v>
       </c>
       <c r="G11" s="2">
-        <v>1.42</v>
+        <v>2.75</v>
       </c>
       <c r="H11" s="2">
-        <v>20.03</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="I11" s="2">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
       <c r="J11" s="2">
-        <v>18.05</v>
+        <v>14.870000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>18.05</v>
+        <v>14.870000000000001</v>
       </c>
       <c r="L11" s="2">
-        <v>0.93579999999999997</v>
+        <v>0.90429999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B12" s="2">
-        <v>5.52</v>
+        <v>2.02</v>
       </c>
       <c r="C12" s="2">
-        <v>13.75</v>
+        <v>9.69</v>
       </c>
       <c r="D12" s="2">
-        <v>12.67</v>
+        <v>6.55</v>
       </c>
       <c r="E12" s="2">
-        <v>4.0599999999999996</v>
+        <v>4.18</v>
       </c>
       <c r="F12" s="2">
-        <v>2.99</v>
+        <v>2.76</v>
       </c>
       <c r="G12" s="2">
-        <v>1.17</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H12" s="2">
-        <v>20.66</v>
+        <v>18.39</v>
       </c>
       <c r="I12" s="2">
-        <v>3.44</v>
+        <v>2.87</v>
       </c>
       <c r="J12" s="2">
-        <v>17.22</v>
+        <v>15.52</v>
       </c>
       <c r="K12" s="2">
-        <v>17.22</v>
+        <v>15.52</v>
       </c>
       <c r="L12" s="2">
-        <v>0.92830000000000001</v>
+        <v>0.91379999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
-        <v>1.73</v>
+        <v>5.52</v>
       </c>
       <c r="C13" s="2">
-        <v>7.33</v>
+        <v>13.75</v>
       </c>
       <c r="D13" s="2">
-        <v>9.3800000000000008</v>
+        <v>12.67</v>
       </c>
       <c r="E13" s="2">
-        <v>1.06</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F13" s="2">
-        <v>1.5</v>
+        <v>2.99</v>
       </c>
       <c r="G13" s="2">
-        <v>2.4700000000000002</v>
+        <v>1.17</v>
       </c>
       <c r="H13" s="2">
-        <v>18.2</v>
+        <v>20.66</v>
       </c>
       <c r="I13" s="2">
-        <v>1.69</v>
+        <v>3.44</v>
       </c>
       <c r="J13" s="2">
-        <v>16.509999999999998</v>
+        <v>17.22</v>
       </c>
       <c r="K13" s="2">
-        <v>16.509999999999998</v>
+        <v>17.22</v>
       </c>
       <c r="L13" s="2">
-        <v>0.90490000000000004</v>
+        <v>0.92830000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2">
-        <v>0.21</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C14" s="2">
-        <v>0.67</v>
+        <v>11.03</v>
       </c>
       <c r="D14" s="2">
-        <v>0.93</v>
+        <v>15.62</v>
       </c>
       <c r="E14" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>3.97</v>
       </c>
       <c r="F14" s="2">
-        <v>0.35</v>
+        <v>3.81</v>
       </c>
       <c r="G14" s="2">
-        <v>15.66</v>
+        <v>0.82</v>
       </c>
       <c r="H14" s="2">
-        <v>1.06</v>
+        <v>16.5</v>
       </c>
       <c r="I14" s="2">
-        <v>17.21</v>
+        <v>3.68</v>
       </c>
       <c r="J14" s="2">
-        <v>-16.150000000000002</v>
+        <v>12.82</v>
       </c>
       <c r="K14" s="2">
-        <v>16.150000000000002</v>
+        <v>12.82</v>
       </c>
       <c r="L14" s="2">
-        <v>-0.20039999999999999</v>
+        <v>0.94040000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="C15" s="2">
-        <v>9.51</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>9.75</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E15" s="2">
-        <v>2.1</v>
+        <v>3.87</v>
       </c>
       <c r="F15" s="2">
-        <v>1.18</v>
+        <v>1.75</v>
       </c>
       <c r="G15" s="2">
-        <v>1.53</v>
+        <v>0.64</v>
       </c>
       <c r="H15" s="2">
-        <v>18.5</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="I15" s="2">
-        <v>2.4300000000000002</v>
+        <v>1.66</v>
       </c>
       <c r="J15" s="2">
-        <v>16.07</v>
+        <v>15.530000000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>16.07</v>
+        <v>15.530000000000001</v>
       </c>
       <c r="L15" s="2">
-        <v>0.91810000000000003</v>
+        <v>0.82569999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>9.2100000000000009</v>
+        <v>8.17</v>
       </c>
       <c r="D16" s="2">
-        <v>12.66</v>
+        <v>6.85</v>
       </c>
       <c r="E16" s="2">
-        <v>1.75</v>
+        <v>3.69</v>
       </c>
       <c r="F16" s="2">
-        <v>0.75</v>
+        <v>2.74</v>
       </c>
       <c r="G16" s="2">
-        <v>2.6</v>
+        <v>0.44</v>
       </c>
       <c r="H16" s="2">
-        <v>19.39</v>
+        <v>15.44</v>
       </c>
       <c r="I16" s="2">
-        <v>3.47</v>
+        <v>4.32</v>
       </c>
       <c r="J16" s="2">
-        <v>15.92</v>
+        <v>11.12</v>
       </c>
       <c r="K16" s="2">
-        <v>15.92</v>
+        <v>11.12</v>
       </c>
       <c r="L16" s="2">
-        <v>0.92830000000000001</v>
+        <v>0.92920000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
-        <v>2.15</v>
+        <v>3.69</v>
       </c>
       <c r="C17" s="2">
-        <v>8.44</v>
+        <v>9.85</v>
       </c>
       <c r="D17" s="2">
-        <v>7.74</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="E17" s="2">
-        <v>1.1000000000000001</v>
+        <v>3.67</v>
       </c>
       <c r="F17" s="2">
-        <v>2.2200000000000002</v>
+        <v>4.05</v>
       </c>
       <c r="G17" s="2">
-        <v>0.63</v>
+        <v>0.93</v>
       </c>
       <c r="H17" s="2">
-        <v>17.579999999999998</v>
+        <v>16.93</v>
       </c>
       <c r="I17" s="2">
-        <v>1.8</v>
+        <v>5.78</v>
       </c>
       <c r="J17" s="2">
-        <v>15.779999999999998</v>
+        <v>11.149999999999999</v>
       </c>
       <c r="K17" s="2">
-        <v>15.779999999999998</v>
+        <v>11.149999999999999</v>
       </c>
       <c r="L17" s="2">
-        <v>0.91469999999999996</v>
+        <v>0.94130000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2">
-        <v>5.66</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>6.7</v>
+        <v>9.34</v>
       </c>
       <c r="D18" s="2">
-        <v>16.350000000000001</v>
+        <v>13.37</v>
       </c>
       <c r="E18" s="2">
-        <v>2.59</v>
+        <v>3.56</v>
       </c>
       <c r="F18" s="2">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="G18" s="2">
-        <v>0.94</v>
+        <v>5.28</v>
       </c>
       <c r="H18" s="2">
-        <v>19.18</v>
+        <v>19.52</v>
       </c>
       <c r="I18" s="2">
-        <v>3.56</v>
+        <v>4.13</v>
       </c>
       <c r="J18" s="2">
-        <v>15.62</v>
+        <v>15.39</v>
       </c>
       <c r="K18" s="2">
-        <v>15.62</v>
-      </c>
-      <c r="L18" s="2" t="e">
-        <v>#N/A</v>
+        <v>15.39</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0.84089999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B19" s="2">
-        <v>1.91</v>
+        <v>10.58</v>
       </c>
       <c r="C19" s="2">
-        <v>8</v>
+        <v>8.08</v>
       </c>
       <c r="D19" s="2">
-        <v>8.6999999999999993</v>
+        <v>1.86</v>
       </c>
       <c r="E19" s="2">
-        <v>3.87</v>
+        <v>3.55</v>
       </c>
       <c r="F19" s="2">
-        <v>1.75</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G19" s="2">
-        <v>0.64</v>
+        <v>2.44</v>
       </c>
       <c r="H19" s="2">
-        <v>17.190000000000001</v>
+        <v>11.81</v>
       </c>
       <c r="I19" s="2">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>15.530000000000001</v>
+        <v>11.81</v>
       </c>
       <c r="K19" s="2">
-        <v>15.530000000000001</v>
+        <v>11.81</v>
       </c>
       <c r="L19" s="2">
-        <v>0.82569999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>2.02</v>
+        <v>10.58</v>
       </c>
       <c r="C20" s="2">
-        <v>9.69</v>
+        <v>8.08</v>
       </c>
       <c r="D20" s="2">
-        <v>6.55</v>
+        <v>1.86</v>
       </c>
       <c r="E20" s="2">
-        <v>4.18</v>
+        <v>3.55</v>
       </c>
       <c r="F20" s="2">
-        <v>2.76</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G20" s="2">
-        <v>1.1200000000000001</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>18.39</v>
+        <v>11.81</v>
       </c>
       <c r="I20" s="2">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>15.52</v>
+        <v>11.81</v>
       </c>
       <c r="K20" s="2">
-        <v>15.52</v>
+        <v>11.81</v>
       </c>
       <c r="L20" s="2">
-        <v>0.91379999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="C21" s="2">
-        <v>9.34</v>
+        <v>6.81</v>
       </c>
       <c r="D21" s="2">
-        <v>13.37</v>
+        <v>13.96</v>
       </c>
       <c r="E21" s="2">
-        <v>3.56</v>
+        <v>3.42</v>
       </c>
       <c r="F21" s="2">
-        <v>2.86</v>
+        <v>3.9</v>
       </c>
       <c r="G21" s="2">
-        <v>5.28</v>
+        <v>1.02</v>
       </c>
       <c r="H21" s="2">
-        <v>19.52</v>
+        <v>17.55</v>
       </c>
       <c r="I21" s="2">
-        <v>4.13</v>
+        <v>5.04</v>
       </c>
       <c r="J21" s="2">
-        <v>15.39</v>
+        <v>12.510000000000002</v>
       </c>
       <c r="K21" s="2">
-        <v>15.39</v>
+        <v>12.510000000000002</v>
       </c>
       <c r="L21" s="2">
-        <v>0.84089999999999998</v>
+        <v>0.94089999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2">
-        <v>2.73</v>
+        <v>3.59</v>
       </c>
       <c r="C22" s="2">
-        <v>13.44</v>
+        <v>10.9</v>
       </c>
       <c r="D22" s="2">
-        <v>12.18</v>
+        <v>13.22</v>
       </c>
       <c r="E22" s="2">
-        <v>1.24</v>
+        <v>3.37</v>
       </c>
       <c r="F22" s="2">
-        <v>1.56</v>
+        <v>4.17</v>
       </c>
       <c r="G22" s="2">
-        <v>0.34</v>
+        <v>0.77</v>
       </c>
       <c r="H22" s="2">
-        <v>18.54</v>
+        <v>13.97</v>
       </c>
       <c r="I22" s="2">
-        <v>3.49</v>
+        <v>4.41</v>
       </c>
       <c r="J22" s="2">
-        <v>15.049999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="K22" s="2">
-        <v>15.049999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="L22" s="2">
-        <v>0.93</v>
+        <v>0.93879999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2">
-        <v>0.32</v>
+        <v>2.76</v>
       </c>
       <c r="C23" s="2">
-        <v>6.43</v>
+        <v>9.49</v>
       </c>
       <c r="D23" s="2">
-        <v>14.01</v>
+        <v>9.35</v>
       </c>
       <c r="E23" s="2">
-        <v>4.28</v>
+        <v>3.37</v>
       </c>
       <c r="F23" s="2">
-        <v>1.7</v>
+        <v>3.45</v>
       </c>
       <c r="G23" s="2">
-        <v>2.75</v>
+        <v>0.53</v>
       </c>
       <c r="H23" s="2">
-        <v>17.510000000000002</v>
+        <v>15.3</v>
       </c>
       <c r="I23" s="2">
-        <v>2.64</v>
+        <v>2.99</v>
       </c>
       <c r="J23" s="2">
-        <v>14.870000000000001</v>
+        <v>12.31</v>
       </c>
       <c r="K23" s="2">
-        <v>14.870000000000001</v>
+        <v>12.31</v>
       </c>
       <c r="L23" s="2">
-        <v>0.90429999999999999</v>
+        <v>0.9385</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2">
-        <v>0.21</v>
+        <v>1.99</v>
       </c>
       <c r="C24" s="2">
-        <v>8.0500000000000007</v>
+        <v>17.32</v>
       </c>
       <c r="D24" s="2">
-        <v>13.64</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="E24" s="2">
-        <v>1.48</v>
+        <v>3.34</v>
       </c>
       <c r="F24" s="2">
-        <v>1.88</v>
+        <v>3.64</v>
       </c>
       <c r="G24" s="2">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="H24" s="2">
-        <v>17.37</v>
+        <v>18.22</v>
       </c>
       <c r="I24" s="2">
-        <v>2.79</v>
+        <v>5.75</v>
       </c>
       <c r="J24" s="2">
-        <v>14.580000000000002</v>
+        <v>12.469999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>14.580000000000002</v>
-      </c>
-      <c r="L24" s="2" t="e">
-        <v>#N/A</v>
+        <v>12.469999999999999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0.92889999999999995</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B25" s="2">
-        <v>5.32</v>
+        <v>1.99</v>
       </c>
       <c r="C25" s="2">
-        <v>11.45</v>
+        <v>17.32</v>
       </c>
       <c r="D25" s="2">
-        <v>8.81</v>
+        <v>18.920000000000002</v>
       </c>
       <c r="E25" s="2">
-        <v>1.58</v>
+        <v>3.34</v>
       </c>
       <c r="F25" s="2">
-        <v>3.72</v>
+        <v>3.64</v>
       </c>
       <c r="G25" s="2">
-        <v>3.13</v>
+        <v>2.25</v>
       </c>
       <c r="H25" s="2">
-        <v>18.510000000000002</v>
+        <v>18.22</v>
       </c>
       <c r="I25" s="2">
-        <v>4.01</v>
+        <v>5.75</v>
       </c>
       <c r="J25" s="2">
-        <v>14.500000000000002</v>
+        <v>12.469999999999999</v>
       </c>
       <c r="K25" s="2">
-        <v>14.500000000000002</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0.9214</v>
+        <v>12.469999999999999</v>
+      </c>
+      <c r="L25" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
-        <v>5.32</v>
+        <v>3.88</v>
       </c>
       <c r="C26" s="2">
-        <v>11.45</v>
+        <v>12.08</v>
       </c>
       <c r="D26" s="2">
-        <v>8.81</v>
+        <v>13.42</v>
       </c>
       <c r="E26" s="2">
-        <v>1.58</v>
+        <v>3.33</v>
       </c>
       <c r="F26" s="2">
-        <v>3.72</v>
+        <v>4.42</v>
       </c>
       <c r="G26" s="2">
-        <v>2.79</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H26" s="2">
-        <v>18.510000000000002</v>
+        <v>16.45</v>
       </c>
       <c r="I26" s="2">
-        <v>4.01</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J26" s="2">
-        <v>14.500000000000002</v>
+        <v>12.259999999999998</v>
       </c>
       <c r="K26" s="2">
-        <v>14.500000000000002</v>
+        <v>12.259999999999998</v>
       </c>
       <c r="L26" s="2">
-        <v>0.9214</v>
+        <v>0.91690000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B27" s="2">
-        <v>2.1</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="C27" s="2">
-        <v>9.9700000000000006</v>
+        <v>10.19</v>
       </c>
       <c r="D27" s="2">
-        <v>17.22</v>
+        <v>10.93</v>
       </c>
       <c r="E27" s="2">
-        <v>3.07</v>
+        <v>3.33</v>
       </c>
       <c r="F27" s="2">
-        <v>4.55</v>
+        <v>4.37</v>
       </c>
       <c r="G27" s="2">
-        <v>1.31</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H27" s="2">
-        <v>18.559999999999999</v>
+        <v>12.69</v>
       </c>
       <c r="I27" s="2">
-        <v>4.25</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="J27" s="2">
-        <v>14.309999999999999</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="K27" s="2">
-        <v>14.309999999999999</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L27" s="2">
-        <v>0.90690000000000004</v>
+        <v>0.93769999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
       <c r="C28" s="2">
-        <v>9.5399999999999991</v>
+        <v>9.91</v>
       </c>
       <c r="D28" s="2">
-        <v>10.09</v>
+        <v>7.15</v>
       </c>
       <c r="E28" s="2">
-        <v>0.62</v>
+        <v>3.28</v>
       </c>
       <c r="F28" s="2">
-        <v>2.0499999999999998</v>
+        <v>2.93</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="H28" s="2">
-        <v>15.96</v>
+        <v>14.52</v>
       </c>
       <c r="I28" s="2">
-        <v>1.74</v>
+        <v>3.47</v>
       </c>
       <c r="J28" s="2">
-        <v>14.22</v>
+        <v>11.049999999999999</v>
       </c>
       <c r="K28" s="2">
-        <v>14.22</v>
+        <v>11.049999999999999</v>
       </c>
       <c r="L28" s="2">
-        <v>0.495</v>
+        <v>0.89739999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="B29" s="2">
-        <v>1.77</v>
+        <v>4.05</v>
       </c>
       <c r="C29" s="2">
-        <v>10.02</v>
+        <v>9.44</v>
       </c>
       <c r="D29" s="2">
-        <v>14.57</v>
+        <v>13.39</v>
       </c>
       <c r="E29" s="2">
-        <v>1.96</v>
+        <v>3.26</v>
       </c>
       <c r="F29" s="2">
-        <v>2.71</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G29" s="2">
-        <v>2.2599999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="H29" s="2">
-        <v>17.43</v>
+        <v>16.14</v>
       </c>
       <c r="I29" s="2">
-        <v>3.22</v>
+        <v>5.72</v>
       </c>
       <c r="J29" s="2">
-        <v>14.209999999999999</v>
+        <v>10.420000000000002</v>
       </c>
       <c r="K29" s="2">
-        <v>14.209999999999999</v>
+        <v>10.420000000000002</v>
       </c>
       <c r="L29" s="2">
-        <v>0.88449999999999995</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -15843,154 +15843,154 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2">
-        <v>4.79</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="C31" s="2">
-        <v>10.130000000000001</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="D31" s="2">
-        <v>13.67</v>
+        <v>9.94</v>
       </c>
       <c r="E31" s="2">
-        <v>7.45</v>
+        <v>3.08</v>
       </c>
       <c r="F31" s="2">
-        <v>3.25</v>
+        <v>3.62</v>
       </c>
       <c r="G31" s="2">
-        <v>2.06</v>
+        <v>1.67</v>
       </c>
       <c r="H31" s="2">
-        <v>16.28</v>
+        <v>15.55</v>
       </c>
       <c r="I31" s="2">
-        <v>2.33</v>
+        <v>3.38</v>
       </c>
       <c r="J31" s="2">
-        <v>13.950000000000001</v>
+        <v>12.170000000000002</v>
       </c>
       <c r="K31" s="2">
-        <v>13.950000000000001</v>
+        <v>12.170000000000002</v>
       </c>
       <c r="L31" s="2">
-        <v>0.87019999999999997</v>
+        <v>0.89139999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B32" s="2">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="C32" s="2">
-        <v>10.01</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="D32" s="2">
-        <v>8.86</v>
+        <v>17.22</v>
       </c>
       <c r="E32" s="2">
-        <v>1.1499999999999999</v>
+        <v>3.07</v>
       </c>
       <c r="F32" s="2">
-        <v>1.89</v>
+        <v>4.55</v>
       </c>
       <c r="G32" s="2">
-        <v>1.1100000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="H32" s="2">
-        <v>15.74</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="I32" s="2">
-        <v>1.84</v>
+        <v>4.25</v>
       </c>
       <c r="J32" s="2">
-        <v>13.9</v>
+        <v>14.309999999999999</v>
       </c>
       <c r="K32" s="2">
-        <v>13.9</v>
+        <v>14.309999999999999</v>
       </c>
       <c r="L32" s="2">
-        <v>0.84330000000000005</v>
+        <v>0.90690000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2">
-        <v>2.6</v>
+        <v>3.13</v>
       </c>
       <c r="C33" s="2">
-        <v>5.83</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="D33" s="2">
-        <v>14.28</v>
+        <v>6.45</v>
       </c>
       <c r="E33" s="2">
-        <v>2.21</v>
+        <v>2.94</v>
       </c>
       <c r="F33" s="2">
-        <v>1.36</v>
+        <v>3.33</v>
       </c>
       <c r="G33" s="2">
-        <v>2.95</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="H33" s="2">
-        <v>15.99</v>
+        <v>15.98</v>
       </c>
       <c r="I33" s="2">
-        <v>2.15</v>
+        <v>3.38</v>
       </c>
       <c r="J33" s="2">
-        <v>13.84</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="K33" s="2">
-        <v>13.84</v>
+        <v>12.600000000000001</v>
       </c>
       <c r="L33" s="2">
-        <v>0.92110000000000003</v>
+        <v>0.88380000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B34" s="2">
-        <v>2.4700000000000002</v>
+        <v>1.82</v>
       </c>
       <c r="C34" s="2">
-        <v>7.18</v>
+        <v>10.49</v>
       </c>
       <c r="D34" s="2">
-        <v>11.63</v>
+        <v>11.88</v>
       </c>
       <c r="E34" s="2">
-        <v>2.67</v>
+        <v>2.91</v>
       </c>
       <c r="F34" s="2">
-        <v>2.04</v>
+        <v>3.11</v>
       </c>
       <c r="G34" s="2">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H34" s="2">
-        <v>17.46</v>
+        <v>16.18</v>
       </c>
       <c r="I34" s="2">
-        <v>3.82</v>
+        <v>3.18</v>
       </c>
       <c r="J34" s="2">
-        <v>13.64</v>
+        <v>13</v>
       </c>
       <c r="K34" s="2">
-        <v>13.64</v>
+        <v>13</v>
       </c>
       <c r="L34" s="2">
-        <v>0.93920000000000003</v>
+        <v>0.92349999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -16033,2515 +16033,2515 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
-        <v>2.29</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="C36" s="2">
-        <v>9.84</v>
+        <v>11.09</v>
       </c>
       <c r="D36" s="2">
-        <v>12.49</v>
+        <v>12.11</v>
       </c>
       <c r="E36" s="2">
-        <v>1.63</v>
+        <v>2.78</v>
       </c>
       <c r="F36" s="2">
-        <v>3.2</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="G36" s="2">
-        <v>1.08</v>
+        <v>1.69</v>
       </c>
       <c r="H36" s="2">
-        <v>17.18</v>
+        <v>15.46</v>
       </c>
       <c r="I36" s="2">
-        <v>3.69</v>
+        <v>5.03</v>
       </c>
       <c r="J36" s="2">
-        <v>13.49</v>
+        <v>10.43</v>
       </c>
       <c r="K36" s="2">
-        <v>13.49</v>
+        <v>10.43</v>
       </c>
       <c r="L36" s="2">
-        <v>0.9365</v>
+        <v>0.9244</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B37" s="2">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="C37" s="2">
-        <v>11.17</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="D37" s="2">
-        <v>8.2200000000000006</v>
+        <v>11.4</v>
       </c>
       <c r="E37" s="2">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="F37" s="2">
-        <v>3.14</v>
+        <v>1.99</v>
       </c>
       <c r="G37" s="2">
-        <v>1.61</v>
+        <v>2.15</v>
       </c>
       <c r="H37" s="2">
-        <v>16.45</v>
+        <v>15.59</v>
       </c>
       <c r="I37" s="2">
-        <v>3.07</v>
+        <v>4.25</v>
       </c>
       <c r="J37" s="2">
-        <v>13.379999999999999</v>
+        <v>11.34</v>
       </c>
       <c r="K37" s="2">
-        <v>13.379999999999999</v>
+        <v>11.34</v>
       </c>
       <c r="L37" s="2">
-        <v>0.92490000000000006</v>
+        <v>0.93589999999999995</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B38" s="2">
-        <v>2.72</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C38" s="2">
-        <v>9.3699999999999992</v>
+        <v>7.18</v>
       </c>
       <c r="D38" s="2">
-        <v>7.59</v>
+        <v>11.63</v>
       </c>
       <c r="E38" s="2">
-        <v>0.88</v>
+        <v>2.67</v>
       </c>
       <c r="F38" s="2">
-        <v>0.36</v>
+        <v>2.04</v>
       </c>
       <c r="G38" s="2">
-        <v>3.79</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="2">
-        <v>15.76</v>
+        <v>17.46</v>
       </c>
       <c r="I38" s="2">
-        <v>2.42</v>
+        <v>3.82</v>
       </c>
       <c r="J38" s="2">
-        <v>13.34</v>
+        <v>13.64</v>
       </c>
       <c r="K38" s="2">
-        <v>13.34</v>
+        <v>13.64</v>
       </c>
       <c r="L38" s="2">
-        <v>0.90710000000000002</v>
+        <v>0.93920000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>8.58</v>
+        <v>11.89</v>
       </c>
       <c r="D39" s="2">
-        <v>6.57</v>
+        <v>10.38</v>
       </c>
       <c r="E39" s="2">
-        <v>1.02</v>
+        <v>2.67</v>
       </c>
       <c r="F39" s="2">
-        <v>1.49</v>
+        <v>1.19</v>
       </c>
       <c r="G39" s="2">
-        <v>4.26</v>
+        <v>0.87</v>
       </c>
       <c r="H39" s="2">
-        <v>17.55</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="I39" s="2">
-        <v>4.32</v>
+        <v>0.87</v>
       </c>
       <c r="J39" s="2">
-        <v>13.23</v>
+        <v>18.869999999999997</v>
       </c>
       <c r="K39" s="2">
-        <v>13.23</v>
+        <v>18.869999999999997</v>
       </c>
       <c r="L39" s="2">
-        <v>0.88300000000000001</v>
+        <v>0.83879999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2">
-        <v>0.3</v>
+        <v>5.66</v>
       </c>
       <c r="C40" s="2">
-        <v>11.06</v>
+        <v>6.7</v>
       </c>
       <c r="D40" s="2">
-        <v>5.48</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="E40" s="2">
-        <v>2.5099999999999998</v>
+        <v>2.59</v>
       </c>
       <c r="F40" s="2">
-        <v>2.2599999999999998</v>
+        <v>2.58</v>
       </c>
       <c r="G40" s="2">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="H40" s="2">
-        <v>16.309999999999999</v>
+        <v>19.18</v>
       </c>
       <c r="I40" s="2">
-        <v>3.17</v>
+        <v>3.56</v>
       </c>
       <c r="J40" s="2">
-        <v>13.139999999999999</v>
+        <v>15.62</v>
       </c>
       <c r="K40" s="2">
-        <v>13.139999999999999</v>
-      </c>
-      <c r="L40" s="2">
-        <v>0.91810000000000003</v>
+        <v>15.62</v>
+      </c>
+      <c r="L40" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2">
-        <v>3.21</v>
+        <v>3.99</v>
       </c>
       <c r="C41" s="2">
-        <v>6.11</v>
+        <v>10.51</v>
       </c>
       <c r="D41" s="2">
-        <v>11.37</v>
+        <v>12.36</v>
       </c>
       <c r="E41" s="2">
-        <v>1.2</v>
+        <v>2.58</v>
       </c>
       <c r="F41" s="2">
-        <v>2.67</v>
+        <v>4.03</v>
       </c>
       <c r="G41" s="2">
-        <v>0.89</v>
+        <v>1.22</v>
       </c>
       <c r="H41" s="2">
-        <v>15.71</v>
+        <v>15.01</v>
       </c>
       <c r="I41" s="2">
-        <v>2.59</v>
+        <v>5.04</v>
       </c>
       <c r="J41" s="2">
-        <v>13.120000000000001</v>
+        <v>9.9699999999999989</v>
       </c>
       <c r="K41" s="2">
-        <v>13.120000000000001</v>
+        <v>9.9699999999999989</v>
       </c>
       <c r="L41" s="2">
-        <v>0.92610000000000003</v>
+        <v>0.92190000000000005</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="B42" s="2">
-        <v>1.82</v>
+        <v>0.3</v>
       </c>
       <c r="C42" s="2">
-        <v>10.49</v>
+        <v>11.06</v>
       </c>
       <c r="D42" s="2">
-        <v>11.88</v>
+        <v>5.48</v>
       </c>
       <c r="E42" s="2">
-        <v>2.91</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="F42" s="2">
-        <v>3.11</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G42" s="2">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2">
-        <v>16.18</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="I42" s="2">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="J42" s="2">
-        <v>13</v>
+        <v>13.139999999999999</v>
       </c>
       <c r="K42" s="2">
-        <v>13</v>
+        <v>13.139999999999999</v>
       </c>
       <c r="L42" s="2">
-        <v>0.92349999999999999</v>
+        <v>0.91810000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B43" s="2">
-        <v>3.52</v>
+        <v>2.25</v>
       </c>
       <c r="C43" s="2">
-        <v>11.58</v>
+        <v>9.58</v>
       </c>
       <c r="D43" s="2">
-        <v>19.170000000000002</v>
+        <v>7.72</v>
       </c>
       <c r="E43" s="2">
-        <v>1.9</v>
+        <v>2.48</v>
       </c>
       <c r="F43" s="2">
-        <v>4.9000000000000004</v>
+        <v>3.43</v>
       </c>
       <c r="G43" s="2">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="H43" s="2">
-        <v>17.670000000000002</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="I43" s="2">
-        <v>4.74</v>
+        <v>3.85</v>
       </c>
       <c r="J43" s="2">
-        <v>12.930000000000001</v>
+        <v>12.160000000000002</v>
       </c>
       <c r="K43" s="2">
-        <v>12.930000000000001</v>
+        <v>12.160000000000002</v>
       </c>
       <c r="L43" s="2">
-        <v>0.89529999999999998</v>
+        <v>0.93440000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2">
-        <v>4.5999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="C44" s="2">
-        <v>11.03</v>
+        <v>10.87</v>
       </c>
       <c r="D44" s="2">
-        <v>15.62</v>
+        <v>11.15</v>
       </c>
       <c r="E44" s="2">
-        <v>3.97</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="F44" s="2">
-        <v>3.81</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="G44" s="2">
-        <v>0.82</v>
+        <v>1.8</v>
       </c>
       <c r="H44" s="2">
-        <v>16.5</v>
+        <v>12.79</v>
       </c>
       <c r="I44" s="2">
-        <v>3.68</v>
+        <v>4.78</v>
       </c>
       <c r="J44" s="2">
-        <v>12.82</v>
+        <v>8.009999999999998</v>
       </c>
       <c r="K44" s="2">
-        <v>12.82</v>
+        <v>8.009999999999998</v>
       </c>
       <c r="L44" s="2">
-        <v>0.94040000000000001</v>
+        <v>0.92390000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2">
-        <v>3.03</v>
+        <v>3.9</v>
       </c>
       <c r="C45" s="2">
-        <v>10.58</v>
+        <v>11.17</v>
       </c>
       <c r="D45" s="2">
-        <v>10.63</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="E45" s="2">
-        <v>1.69</v>
+        <v>2.42</v>
       </c>
       <c r="F45" s="2">
-        <v>1.84</v>
+        <v>3.14</v>
       </c>
       <c r="G45" s="2">
-        <v>0.9</v>
+        <v>1.61</v>
       </c>
       <c r="H45" s="2">
-        <v>17.489999999999998</v>
+        <v>16.45</v>
       </c>
       <c r="I45" s="2">
-        <v>4.71</v>
+        <v>3.07</v>
       </c>
       <c r="J45" s="2">
-        <v>12.779999999999998</v>
+        <v>13.379999999999999</v>
       </c>
       <c r="K45" s="2">
-        <v>12.779999999999998</v>
+        <v>13.379999999999999</v>
       </c>
       <c r="L45" s="2">
-        <v>0.94140000000000001</v>
+        <v>0.92490000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="B46" s="2">
-        <v>2.99</v>
+        <v>2.56</v>
       </c>
       <c r="C46" s="2">
-        <v>11.74</v>
+        <v>11.1</v>
       </c>
       <c r="D46" s="2">
-        <v>11.92</v>
+        <v>10.36</v>
       </c>
       <c r="E46" s="2">
-        <v>2.12</v>
+        <v>2.41</v>
       </c>
       <c r="F46" s="2">
-        <v>4.2</v>
+        <v>4.76</v>
       </c>
       <c r="G46" s="2">
-        <v>1.95</v>
+        <v>1.05</v>
       </c>
       <c r="H46" s="2">
-        <v>16.29</v>
+        <v>15.72</v>
       </c>
       <c r="I46" s="2">
-        <v>3.58</v>
+        <v>4.45</v>
       </c>
       <c r="J46" s="2">
-        <v>12.709999999999999</v>
+        <v>11.27</v>
       </c>
       <c r="K46" s="2">
-        <v>12.709999999999999</v>
+        <v>11.27</v>
       </c>
       <c r="L46" s="2">
-        <v>0.93400000000000005</v>
+        <v>0.90890000000000004</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B47" s="2">
-        <v>3.13</v>
+        <v>3.55</v>
       </c>
       <c r="C47" s="2">
-        <v>9.5299999999999994</v>
+        <v>10.08</v>
       </c>
       <c r="D47" s="2">
-        <v>6.45</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="E47" s="2">
-        <v>2.94</v>
+        <v>2.39</v>
       </c>
       <c r="F47" s="2">
-        <v>3.33</v>
+        <v>3.23</v>
       </c>
       <c r="G47" s="2">
-        <v>1.0900000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="H47" s="2">
-        <v>15.98</v>
+        <v>14.97</v>
       </c>
       <c r="I47" s="2">
-        <v>3.38</v>
+        <v>3.77</v>
       </c>
       <c r="J47" s="2">
-        <v>12.600000000000001</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="K47" s="2">
-        <v>12.600000000000001</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="L47" s="2">
-        <v>0.88380000000000003</v>
+        <v>0.94030000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2">
-        <v>3.68</v>
+        <v>1.71</v>
       </c>
       <c r="C48" s="2">
-        <v>10.08</v>
+        <v>12.48</v>
       </c>
       <c r="D48" s="2">
-        <v>10.57</v>
+        <v>17.04</v>
       </c>
       <c r="E48" s="2">
-        <v>0.55000000000000004</v>
+        <v>2.38</v>
       </c>
       <c r="F48" s="2">
-        <v>3.6</v>
+        <v>6.28</v>
       </c>
       <c r="G48" s="2">
-        <v>1.3</v>
+        <v>0.62</v>
       </c>
       <c r="H48" s="2">
-        <v>16.7</v>
+        <v>15.84</v>
       </c>
       <c r="I48" s="2">
-        <v>4.13</v>
+        <v>5.87</v>
       </c>
       <c r="J48" s="2">
-        <v>12.57</v>
+        <v>9.9699999999999989</v>
       </c>
       <c r="K48" s="2">
-        <v>12.57</v>
+        <v>9.9699999999999989</v>
       </c>
       <c r="L48" s="2">
-        <v>0.90329999999999999</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B49" s="2">
-        <v>1.28</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C49" s="2">
-        <v>6.81</v>
+        <v>10.65</v>
       </c>
       <c r="D49" s="2">
-        <v>13.96</v>
+        <v>9.07</v>
       </c>
       <c r="E49" s="2">
-        <v>3.42</v>
+        <v>2.35</v>
       </c>
       <c r="F49" s="2">
-        <v>3.9</v>
+        <v>6.41</v>
       </c>
       <c r="G49" s="2">
-        <v>1.02</v>
+        <v>2.23</v>
       </c>
       <c r="H49" s="2">
-        <v>17.55</v>
+        <v>15.11</v>
       </c>
       <c r="I49" s="2">
-        <v>5.04</v>
+        <v>7.82</v>
       </c>
       <c r="J49" s="2">
-        <v>12.510000000000002</v>
+        <v>7.2899999999999991</v>
       </c>
       <c r="K49" s="2">
-        <v>12.510000000000002</v>
+        <v>7.2899999999999991</v>
       </c>
       <c r="L49" s="2">
-        <v>0.94089999999999996</v>
+        <v>0.94240000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2">
-        <v>1.99</v>
+        <v>3.92</v>
       </c>
       <c r="C50" s="2">
-        <v>17.32</v>
+        <v>10.71</v>
       </c>
       <c r="D50" s="2">
-        <v>18.920000000000002</v>
+        <v>14.6</v>
       </c>
       <c r="E50" s="2">
-        <v>3.34</v>
+        <v>2.34</v>
       </c>
       <c r="F50" s="2">
-        <v>3.64</v>
+        <v>2.88</v>
       </c>
       <c r="G50" s="2">
-        <v>1.37</v>
+        <v>2.52</v>
       </c>
       <c r="H50" s="2">
-        <v>18.22</v>
+        <v>15.81</v>
       </c>
       <c r="I50" s="2">
-        <v>5.75</v>
+        <v>4.01</v>
       </c>
       <c r="J50" s="2">
-        <v>12.469999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="K50" s="2">
-        <v>12.469999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="L50" s="2">
-        <v>0.92889999999999995</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2">
-        <v>1.99</v>
+        <v>3.43</v>
       </c>
       <c r="C51" s="2">
-        <v>17.32</v>
+        <v>9.76</v>
       </c>
       <c r="D51" s="2">
-        <v>18.920000000000002</v>
+        <v>10.58</v>
       </c>
       <c r="E51" s="2">
-        <v>3.34</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F51" s="2">
-        <v>3.64</v>
+        <v>2.7</v>
       </c>
       <c r="G51" s="2">
-        <v>2.25</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="H51" s="2">
-        <v>18.22</v>
+        <v>15.94</v>
       </c>
       <c r="I51" s="2">
-        <v>5.75</v>
+        <v>7.66</v>
       </c>
       <c r="J51" s="2">
-        <v>12.469999999999999</v>
+        <v>8.2799999999999994</v>
       </c>
       <c r="K51" s="2">
-        <v>12.469999999999999</v>
-      </c>
-      <c r="L51" s="2" t="e">
-        <v>#N/A</v>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0.93469999999999998</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2">
-        <v>5.15</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2">
-        <v>10.130000000000001</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>10.99</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E52" s="2">
-        <v>0.77</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F52" s="2">
-        <v>3.7</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G52" s="2">
-        <v>1.46</v>
+        <v>2.62</v>
       </c>
       <c r="H52" s="2">
-        <v>14.74</v>
+        <v>2.77</v>
       </c>
       <c r="I52" s="2">
-        <v>2.36</v>
+        <v>3.67</v>
       </c>
       <c r="J52" s="2">
-        <v>12.38</v>
+        <v>-0.89999999999999991</v>
       </c>
       <c r="K52" s="2">
-        <v>12.38</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="L52" s="2">
-        <v>0.84150000000000003</v>
+        <v>-2.1861000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B53" s="2">
-        <v>5.19</v>
+        <v>2.6</v>
       </c>
       <c r="C53" s="2">
-        <v>10.98</v>
+        <v>5.83</v>
       </c>
       <c r="D53" s="2">
-        <v>12.81</v>
+        <v>14.28</v>
       </c>
       <c r="E53" s="2">
-        <v>0.89</v>
+        <v>2.21</v>
       </c>
       <c r="F53" s="2">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="G53" s="2">
-        <v>1.57</v>
+        <v>2.95</v>
       </c>
       <c r="H53" s="2">
-        <v>16.53</v>
+        <v>15.99</v>
       </c>
       <c r="I53" s="2">
-        <v>4.16</v>
+        <v>2.15</v>
       </c>
       <c r="J53" s="2">
-        <v>12.370000000000001</v>
+        <v>13.84</v>
       </c>
       <c r="K53" s="2">
-        <v>12.370000000000001</v>
+        <v>13.84</v>
       </c>
       <c r="L53" s="2">
-        <v>0.92800000000000005</v>
+        <v>0.92110000000000003</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B54" s="2">
-        <v>2.76</v>
+        <v>4.3</v>
       </c>
       <c r="C54" s="2">
-        <v>9.49</v>
+        <v>11.47</v>
       </c>
       <c r="D54" s="2">
-        <v>9.35</v>
+        <v>11.48</v>
       </c>
       <c r="E54" s="2">
-        <v>3.37</v>
+        <v>2.16</v>
       </c>
       <c r="F54" s="2">
-        <v>3.45</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="G54" s="2">
-        <v>0.53</v>
+        <v>1.3</v>
       </c>
       <c r="H54" s="2">
-        <v>15.3</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="I54" s="2">
-        <v>2.99</v>
+        <v>5.42</v>
       </c>
       <c r="J54" s="2">
-        <v>12.31</v>
+        <v>10.729999999999999</v>
       </c>
       <c r="K54" s="2">
-        <v>12.31</v>
+        <v>10.729999999999999</v>
       </c>
       <c r="L54" s="2">
-        <v>0.9385</v>
+        <v>0.93410000000000004</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2">
-        <v>3.88</v>
+        <v>3.8</v>
       </c>
       <c r="C55" s="2">
-        <v>12.08</v>
+        <v>9.31</v>
       </c>
       <c r="D55" s="2">
-        <v>13.42</v>
+        <v>10.55</v>
       </c>
       <c r="E55" s="2">
-        <v>3.33</v>
+        <v>2.14</v>
       </c>
       <c r="F55" s="2">
-        <v>4.42</v>
+        <v>2.35</v>
       </c>
       <c r="G55" s="2">
-        <v>2.5299999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="H55" s="2">
-        <v>16.45</v>
+        <v>15.24</v>
       </c>
       <c r="I55" s="2">
-        <v>4.1900000000000004</v>
+        <v>3.08</v>
       </c>
       <c r="J55" s="2">
-        <v>12.259999999999998</v>
+        <v>12.16</v>
       </c>
       <c r="K55" s="2">
-        <v>12.259999999999998</v>
+        <v>12.16</v>
       </c>
       <c r="L55" s="2">
-        <v>0.91690000000000005</v>
+        <v>0.93479999999999996</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2">
-        <v>4.6399999999999997</v>
+        <v>2.99</v>
       </c>
       <c r="C56" s="2">
-        <v>9.9600000000000009</v>
+        <v>11.74</v>
       </c>
       <c r="D56" s="2">
-        <v>9.94</v>
+        <v>11.92</v>
       </c>
       <c r="E56" s="2">
-        <v>3.08</v>
+        <v>2.12</v>
       </c>
       <c r="F56" s="2">
-        <v>3.62</v>
+        <v>4.2</v>
       </c>
       <c r="G56" s="2">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="H56" s="2">
-        <v>15.55</v>
+        <v>16.29</v>
       </c>
       <c r="I56" s="2">
-        <v>3.38</v>
+        <v>3.58</v>
       </c>
       <c r="J56" s="2">
-        <v>12.170000000000002</v>
+        <v>12.709999999999999</v>
       </c>
       <c r="K56" s="2">
-        <v>12.170000000000002</v>
+        <v>12.709999999999999</v>
       </c>
       <c r="L56" s="2">
-        <v>0.89139999999999997</v>
+        <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57" s="2">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="C57" s="2">
-        <v>9.58</v>
+        <v>9.51</v>
       </c>
       <c r="D57" s="2">
-        <v>7.72</v>
+        <v>9.75</v>
       </c>
       <c r="E57" s="2">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="F57" s="2">
-        <v>3.43</v>
+        <v>1.18</v>
       </c>
       <c r="G57" s="2">
-        <v>0.8</v>
+        <v>1.53</v>
       </c>
       <c r="H57" s="2">
-        <v>16.010000000000002</v>
+        <v>18.5</v>
       </c>
       <c r="I57" s="2">
-        <v>3.85</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="J57" s="2">
-        <v>12.160000000000002</v>
+        <v>16.07</v>
       </c>
       <c r="K57" s="2">
-        <v>12.160000000000002</v>
+        <v>16.07</v>
       </c>
       <c r="L57" s="2">
-        <v>0.93440000000000001</v>
+        <v>0.91810000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2">
-        <v>3.8</v>
+        <v>3.12</v>
       </c>
       <c r="C58" s="2">
-        <v>9.31</v>
+        <v>3.74</v>
       </c>
       <c r="D58" s="2">
-        <v>10.55</v>
+        <v>9.39</v>
       </c>
       <c r="E58" s="2">
-        <v>2.14</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F58" s="2">
-        <v>2.35</v>
+        <v>0.95</v>
       </c>
       <c r="G58" s="2">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="H58" s="2">
-        <v>15.24</v>
+        <v>20.03</v>
       </c>
       <c r="I58" s="2">
-        <v>3.08</v>
+        <v>1.98</v>
       </c>
       <c r="J58" s="2">
-        <v>12.16</v>
+        <v>18.05</v>
       </c>
       <c r="K58" s="2">
-        <v>12.16</v>
+        <v>18.05</v>
       </c>
       <c r="L58" s="2">
-        <v>0.93479999999999996</v>
+        <v>0.93579999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B59" s="2">
-        <v>3.04</v>
+        <v>1.77</v>
       </c>
       <c r="C59" s="2">
-        <v>13.74</v>
+        <v>10.02</v>
       </c>
       <c r="D59" s="2">
-        <v>10.85</v>
+        <v>14.57</v>
       </c>
       <c r="E59" s="2">
-        <v>0.66</v>
+        <v>1.96</v>
       </c>
       <c r="F59" s="2">
-        <v>3.09</v>
+        <v>2.71</v>
       </c>
       <c r="G59" s="2">
-        <v>1.29</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H59" s="2">
-        <v>16.57</v>
+        <v>17.43</v>
       </c>
       <c r="I59" s="2">
-        <v>4.42</v>
+        <v>3.22</v>
       </c>
       <c r="J59" s="2">
-        <v>12.15</v>
+        <v>14.209999999999999</v>
       </c>
       <c r="K59" s="2">
-        <v>12.15</v>
-      </c>
-      <c r="L59" s="2" t="e">
-        <v>#N/A</v>
+        <v>14.209999999999999</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0.88449999999999995</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2">
-        <v>2.88</v>
+        <v>3.52</v>
       </c>
       <c r="C60" s="2">
-        <v>11.25</v>
+        <v>11.58</v>
       </c>
       <c r="D60" s="2">
-        <v>12.42</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="E60" s="2">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="F60" s="2">
-        <v>3.81</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G60" s="2">
-        <v>1.68</v>
+        <v>1.06</v>
       </c>
       <c r="H60" s="2">
-        <v>18.41</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="I60" s="2">
-        <v>6.33</v>
+        <v>4.74</v>
       </c>
       <c r="J60" s="2">
-        <v>12.08</v>
+        <v>12.930000000000001</v>
       </c>
       <c r="K60" s="2">
-        <v>12.08</v>
+        <v>12.930000000000001</v>
       </c>
       <c r="L60" s="2">
-        <v>0.84550000000000003</v>
+        <v>0.89529999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B61" s="2">
-        <v>2.34</v>
+        <v>2.88</v>
       </c>
       <c r="C61" s="2">
-        <v>10.6</v>
+        <v>11.25</v>
       </c>
       <c r="D61" s="2">
-        <v>14.47</v>
+        <v>12.42</v>
       </c>
       <c r="E61" s="2">
-        <v>4.3600000000000003</v>
+        <v>1.84</v>
       </c>
       <c r="F61" s="2">
-        <v>3.08</v>
+        <v>3.81</v>
       </c>
       <c r="G61" s="2">
-        <v>1.0900000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="H61" s="2">
-        <v>16.46</v>
+        <v>18.41</v>
       </c>
       <c r="I61" s="2">
-        <v>4.54</v>
+        <v>6.33</v>
       </c>
       <c r="J61" s="2">
-        <v>11.920000000000002</v>
+        <v>12.08</v>
       </c>
       <c r="K61" s="2">
-        <v>11.920000000000002</v>
+        <v>12.08</v>
       </c>
       <c r="L61" s="2">
-        <v>0.92479999999999996</v>
+        <v>0.84550000000000003</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2">
-        <v>10.58</v>
+        <v>0.48</v>
       </c>
       <c r="C62" s="2">
-        <v>8.08</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="D62" s="2">
-        <v>1.86</v>
+        <v>12.66</v>
       </c>
       <c r="E62" s="2">
-        <v>3.55</v>
+        <v>1.75</v>
       </c>
       <c r="F62" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.75</v>
       </c>
       <c r="G62" s="2">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="H62" s="2">
-        <v>11.81</v>
+        <v>19.39</v>
       </c>
       <c r="I62" s="2">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="J62" s="2">
-        <v>11.81</v>
+        <v>15.92</v>
       </c>
       <c r="K62" s="2">
-        <v>11.81</v>
+        <v>15.92</v>
       </c>
       <c r="L62" s="2">
-        <v>0</v>
+        <v>0.92830000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2">
-        <v>10.58</v>
+        <v>4.18</v>
       </c>
       <c r="C63" s="2">
-        <v>8.08</v>
+        <v>12.8</v>
       </c>
       <c r="D63" s="2">
-        <v>1.86</v>
+        <v>11.26</v>
       </c>
       <c r="E63" s="2">
-        <v>3.55</v>
+        <v>1.75</v>
       </c>
       <c r="F63" s="2">
-        <v>0.56999999999999995</v>
+        <v>4.16</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="H63" s="2">
-        <v>11.81</v>
+        <v>15.88</v>
       </c>
       <c r="I63" s="2">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J63" s="2">
-        <v>11.81</v>
+        <v>11.63</v>
       </c>
       <c r="K63" s="2">
-        <v>11.81</v>
+        <v>11.63</v>
       </c>
       <c r="L63" s="2">
-        <v>0</v>
+        <v>0.93230000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2">
-        <v>3.92</v>
+        <v>3.73</v>
       </c>
       <c r="C64" s="2">
-        <v>10.71</v>
+        <v>10.08</v>
       </c>
       <c r="D64" s="2">
-        <v>14.6</v>
+        <v>11.53</v>
       </c>
       <c r="E64" s="2">
-        <v>2.34</v>
+        <v>1.71</v>
       </c>
       <c r="F64" s="2">
-        <v>2.88</v>
+        <v>4.12</v>
       </c>
       <c r="G64" s="2">
-        <v>2.52</v>
+        <v>0.99</v>
       </c>
       <c r="H64" s="2">
-        <v>15.81</v>
+        <v>16.16</v>
       </c>
       <c r="I64" s="2">
-        <v>4.01</v>
+        <v>4.49</v>
       </c>
       <c r="J64" s="2">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="K64" s="2">
-        <v>11.8</v>
+        <v>11.67</v>
       </c>
       <c r="L64" s="2">
-        <v>0.9375</v>
+        <v>0.92230000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="B65" s="2">
-        <v>3.73</v>
+        <v>1.59</v>
       </c>
       <c r="C65" s="2">
-        <v>10.08</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D65" s="2">
-        <v>11.53</v>
+        <v>33.08</v>
       </c>
       <c r="E65" s="2">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="F65" s="2">
-        <v>4.12</v>
+        <v>1.64</v>
       </c>
       <c r="G65" s="2">
-        <v>0.99</v>
+        <v>3.79</v>
       </c>
       <c r="H65" s="2">
-        <v>16.16</v>
+        <v>34.21</v>
       </c>
       <c r="I65" s="2">
-        <v>4.49</v>
+        <v>4.83</v>
       </c>
       <c r="J65" s="2">
-        <v>11.67</v>
-      </c>
-      <c r="K65" s="2">
-        <v>11.67</v>
+        <v>29.380000000000003</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="L65" s="2">
-        <v>0.92230000000000001</v>
+        <v>0.84630000000000005</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2">
-        <v>4.18</v>
+        <v>3.03</v>
       </c>
       <c r="C66" s="2">
-        <v>12.8</v>
+        <v>10.58</v>
       </c>
       <c r="D66" s="2">
-        <v>11.26</v>
+        <v>10.63</v>
       </c>
       <c r="E66" s="2">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="F66" s="2">
-        <v>4.16</v>
+        <v>1.84</v>
       </c>
       <c r="G66" s="2">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="H66" s="2">
-        <v>15.88</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="I66" s="2">
-        <v>4.25</v>
+        <v>4.71</v>
       </c>
       <c r="J66" s="2">
-        <v>11.63</v>
+        <v>12.779999999999998</v>
       </c>
       <c r="K66" s="2">
-        <v>11.63</v>
+        <v>12.779999999999998</v>
       </c>
       <c r="L66" s="2">
-        <v>0.93230000000000002</v>
+        <v>0.94140000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B67" s="2">
-        <v>3.03</v>
+        <v>2.29</v>
       </c>
       <c r="C67" s="2">
-        <v>9.24</v>
+        <v>9.84</v>
       </c>
       <c r="D67" s="2">
-        <v>4.04</v>
+        <v>12.49</v>
       </c>
       <c r="E67" s="2">
-        <v>0.73</v>
+        <v>1.63</v>
       </c>
       <c r="F67" s="2">
-        <v>1.63</v>
+        <v>3.2</v>
       </c>
       <c r="G67" s="2">
-        <v>2.08</v>
+        <v>1.08</v>
       </c>
       <c r="H67" s="2">
-        <v>15.14</v>
+        <v>17.18</v>
       </c>
       <c r="I67" s="2">
-        <v>3.52</v>
+        <v>3.69</v>
       </c>
       <c r="J67" s="2">
-        <v>11.620000000000001</v>
+        <v>13.49</v>
       </c>
       <c r="K67" s="2">
-        <v>11.620000000000001</v>
+        <v>13.49</v>
       </c>
       <c r="L67" s="2">
-        <v>0.91910000000000003</v>
+        <v>0.9365</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B68" s="2">
-        <v>3.73</v>
+        <v>5.32</v>
       </c>
       <c r="C68" s="2">
-        <v>10.18</v>
+        <v>11.45</v>
       </c>
       <c r="D68" s="2">
-        <v>11.73</v>
+        <v>8.81</v>
       </c>
       <c r="E68" s="2">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="F68" s="2">
-        <v>4.09</v>
+        <v>3.72</v>
       </c>
       <c r="G68" s="2">
-        <v>0.54</v>
+        <v>3.13</v>
       </c>
       <c r="H68" s="2">
-        <v>16.91</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="I68" s="2">
-        <v>5.3</v>
+        <v>4.01</v>
       </c>
       <c r="J68" s="2">
-        <v>11.61</v>
+        <v>14.500000000000002</v>
       </c>
       <c r="K68" s="2">
-        <v>11.61</v>
+        <v>14.500000000000002</v>
       </c>
       <c r="L68" s="2">
-        <v>0.89500000000000002</v>
+        <v>0.9214</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2">
-        <v>3.95</v>
+        <v>5.32</v>
       </c>
       <c r="C69" s="2">
-        <v>11.27</v>
+        <v>11.45</v>
       </c>
       <c r="D69" s="2">
-        <v>12.24</v>
+        <v>8.81</v>
       </c>
       <c r="E69" s="2">
-        <v>5.23</v>
+        <v>1.58</v>
       </c>
       <c r="F69" s="2">
-        <v>4.03</v>
+        <v>3.72</v>
       </c>
       <c r="G69" s="2">
-        <v>1.1499999999999999</v>
+        <v>2.79</v>
       </c>
       <c r="H69" s="2">
-        <v>16.440000000000001</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="I69" s="2">
-        <v>4.8600000000000003</v>
+        <v>4.01</v>
       </c>
       <c r="J69" s="2">
-        <v>11.580000000000002</v>
+        <v>14.500000000000002</v>
       </c>
       <c r="K69" s="2">
-        <v>11.580000000000002</v>
+        <v>14.500000000000002</v>
       </c>
       <c r="L69" s="2">
-        <v>0.81640000000000001</v>
+        <v>0.9214</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B70" s="2">
-        <v>1.6</v>
+        <v>0.68</v>
       </c>
       <c r="C70" s="2">
-        <v>9.0399999999999991</v>
+        <v>7.86</v>
       </c>
       <c r="D70" s="2">
-        <v>11.4</v>
+        <v>15</v>
       </c>
       <c r="E70" s="2">
-        <v>2.74</v>
+        <v>1.56</v>
       </c>
       <c r="F70" s="2">
-        <v>1.99</v>
+        <v>1.47</v>
       </c>
       <c r="G70" s="2">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="H70" s="2">
-        <v>15.59</v>
+        <v>22.61</v>
       </c>
       <c r="I70" s="2">
-        <v>4.25</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="J70" s="2">
-        <v>11.34</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="K70" s="2">
-        <v>11.34</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="L70" s="2">
-        <v>0.93589999999999995</v>
+        <v>0.92459999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2">
-        <v>2.56</v>
+        <v>4.3</v>
       </c>
       <c r="C71" s="2">
-        <v>11.1</v>
+        <v>11.16</v>
       </c>
       <c r="D71" s="2">
-        <v>10.36</v>
+        <v>13.94</v>
       </c>
       <c r="E71" s="2">
-        <v>2.41</v>
+        <v>1.5</v>
       </c>
       <c r="F71" s="2">
-        <v>4.76</v>
+        <v>5.17</v>
       </c>
       <c r="G71" s="2">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="H71" s="2">
-        <v>15.72</v>
+        <v>15.58</v>
       </c>
       <c r="I71" s="2">
-        <v>4.45</v>
+        <v>5.68</v>
       </c>
       <c r="J71" s="2">
-        <v>11.27</v>
+        <v>9.9</v>
       </c>
       <c r="K71" s="2">
-        <v>11.27</v>
+        <v>9.9</v>
       </c>
       <c r="L71" s="2">
-        <v>0.90890000000000004</v>
+        <v>0.93600000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B72" s="2">
-        <v>3.55</v>
+        <v>0.21</v>
       </c>
       <c r="C72" s="2">
-        <v>10.08</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="D72" s="2">
-        <v>8.3699999999999992</v>
+        <v>13.64</v>
       </c>
       <c r="E72" s="2">
-        <v>2.39</v>
+        <v>1.48</v>
       </c>
       <c r="F72" s="2">
-        <v>3.23</v>
+        <v>1.88</v>
       </c>
       <c r="G72" s="2">
-        <v>0.76</v>
+        <v>1.28</v>
       </c>
       <c r="H72" s="2">
-        <v>14.97</v>
+        <v>17.37</v>
       </c>
       <c r="I72" s="2">
-        <v>3.77</v>
+        <v>2.79</v>
       </c>
       <c r="J72" s="2">
-        <v>11.200000000000001</v>
+        <v>14.580000000000002</v>
       </c>
       <c r="K72" s="2">
-        <v>11.200000000000001</v>
-      </c>
-      <c r="L72" s="2">
-        <v>0.94030000000000002</v>
+        <v>14.580000000000002</v>
+      </c>
+      <c r="L72" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B73" s="2">
-        <v>3.81</v>
+        <v>1.19</v>
       </c>
       <c r="C73" s="2">
-        <v>10.58</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="D73" s="2">
-        <v>11.9</v>
+        <v>14.9</v>
       </c>
       <c r="E73" s="2">
-        <v>0.81</v>
+        <v>1.43</v>
       </c>
       <c r="F73" s="2">
-        <v>3.19</v>
+        <v>4.96</v>
       </c>
       <c r="G73" s="2">
-        <v>0.62</v>
+        <v>1.98</v>
       </c>
       <c r="H73" s="2">
-        <v>15.53</v>
+        <v>23.69</v>
       </c>
       <c r="I73" s="2">
-        <v>4.33</v>
+        <v>3.46</v>
       </c>
       <c r="J73" s="2">
-        <v>11.2</v>
+        <v>20.23</v>
       </c>
       <c r="K73" s="2">
-        <v>11.2</v>
+        <v>20.23</v>
       </c>
       <c r="L73" s="2">
-        <v>0.92400000000000004</v>
+        <v>0.71730000000000005</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B74" s="2">
-        <v>3.69</v>
+        <v>1.19</v>
       </c>
       <c r="C74" s="2">
-        <v>9.85</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="D74" s="2">
-        <v>9.7799999999999994</v>
+        <v>14.9</v>
       </c>
       <c r="E74" s="2">
-        <v>3.67</v>
+        <v>1.43</v>
       </c>
       <c r="F74" s="2">
-        <v>4.05</v>
+        <v>4.96</v>
       </c>
       <c r="G74" s="2">
-        <v>0.93</v>
+        <v>5.87</v>
       </c>
       <c r="H74" s="2">
-        <v>16.93</v>
+        <v>23.69</v>
       </c>
       <c r="I74" s="2">
-        <v>5.78</v>
+        <v>3.46</v>
       </c>
       <c r="J74" s="2">
-        <v>11.149999999999999</v>
+        <v>20.23</v>
       </c>
       <c r="K74" s="2">
-        <v>11.149999999999999</v>
+        <v>20.23</v>
       </c>
       <c r="L74" s="2">
-        <v>0.94130000000000003</v>
+        <v>0.71730000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B75" s="2">
-        <v>0</v>
+        <v>3.73</v>
       </c>
       <c r="C75" s="2">
-        <v>8.17</v>
+        <v>10.18</v>
       </c>
       <c r="D75" s="2">
-        <v>6.85</v>
+        <v>11.73</v>
       </c>
       <c r="E75" s="2">
-        <v>3.69</v>
+        <v>1.37</v>
       </c>
       <c r="F75" s="2">
-        <v>2.74</v>
+        <v>4.09</v>
       </c>
       <c r="G75" s="2">
-        <v>0.44</v>
+        <v>0.54</v>
       </c>
       <c r="H75" s="2">
-        <v>15.44</v>
+        <v>16.91</v>
       </c>
       <c r="I75" s="2">
-        <v>4.32</v>
+        <v>5.3</v>
       </c>
       <c r="J75" s="2">
-        <v>11.12</v>
+        <v>11.61</v>
       </c>
       <c r="K75" s="2">
-        <v>11.12</v>
+        <v>11.61</v>
       </c>
       <c r="L75" s="2">
-        <v>0.92920000000000003</v>
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="B76" s="2">
-        <v>3.57</v>
+        <v>3.27</v>
       </c>
       <c r="C76" s="2">
-        <v>12.03</v>
+        <v>10.39</v>
       </c>
       <c r="D76" s="2">
-        <v>12.4</v>
+        <v>12.7</v>
       </c>
       <c r="E76" s="2">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="F76" s="2">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="G76" s="2">
-        <v>2.12</v>
+        <v>0.6</v>
       </c>
       <c r="H76" s="2">
-        <v>17.12</v>
+        <v>15.62</v>
       </c>
       <c r="I76" s="2">
-        <v>6.02</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J76" s="2">
-        <v>11.100000000000001</v>
+        <v>10.969999999999999</v>
       </c>
       <c r="K76" s="2">
-        <v>11.100000000000001</v>
+        <v>10.969999999999999</v>
       </c>
       <c r="L76" s="2">
-        <v>0.91400000000000003</v>
+        <v>0.93479999999999996</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2">
-        <v>3.73</v>
+        <v>3.27</v>
       </c>
       <c r="C77" s="2">
-        <v>9.91</v>
+        <v>10.39</v>
       </c>
       <c r="D77" s="2">
-        <v>7.15</v>
+        <v>12.7</v>
       </c>
       <c r="E77" s="2">
-        <v>3.28</v>
+        <v>1.34</v>
       </c>
       <c r="F77" s="2">
-        <v>2.93</v>
+        <v>3.65</v>
       </c>
       <c r="G77" s="2">
-        <v>1.52</v>
+        <v>0.71</v>
       </c>
       <c r="H77" s="2">
-        <v>14.52</v>
+        <v>15.62</v>
       </c>
       <c r="I77" s="2">
-        <v>3.47</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J77" s="2">
-        <v>11.049999999999999</v>
+        <v>10.969999999999999</v>
       </c>
       <c r="K77" s="2">
-        <v>11.049999999999999</v>
+        <v>10.969999999999999</v>
       </c>
       <c r="L77" s="2">
-        <v>0.89739999999999998</v>
+        <v>0.93479999999999996</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B78" s="2">
-        <v>3.27</v>
+        <v>2.73</v>
       </c>
       <c r="C78" s="2">
-        <v>10.39</v>
+        <v>13.44</v>
       </c>
       <c r="D78" s="2">
-        <v>12.7</v>
+        <v>12.18</v>
       </c>
       <c r="E78" s="2">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="F78" s="2">
-        <v>3.65</v>
+        <v>1.56</v>
       </c>
       <c r="G78" s="2">
-        <v>0.6</v>
+        <v>0.34</v>
       </c>
       <c r="H78" s="2">
-        <v>15.62</v>
+        <v>18.54</v>
       </c>
       <c r="I78" s="2">
-        <v>4.6500000000000004</v>
+        <v>3.49</v>
       </c>
       <c r="J78" s="2">
-        <v>10.969999999999999</v>
+        <v>15.049999999999999</v>
       </c>
       <c r="K78" s="2">
-        <v>10.969999999999999</v>
+        <v>15.049999999999999</v>
       </c>
       <c r="L78" s="2">
-        <v>0.93479999999999996</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B79" s="2">
-        <v>3.27</v>
+        <v>3.57</v>
       </c>
       <c r="C79" s="2">
-        <v>10.39</v>
+        <v>12.03</v>
       </c>
       <c r="D79" s="2">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="E79" s="2">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="F79" s="2">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="G79" s="2">
-        <v>0.71</v>
+        <v>2.12</v>
       </c>
       <c r="H79" s="2">
-        <v>15.62</v>
+        <v>17.12</v>
       </c>
       <c r="I79" s="2">
-        <v>4.6500000000000004</v>
+        <v>6.02</v>
       </c>
       <c r="J79" s="2">
-        <v>10.969999999999999</v>
+        <v>11.100000000000001</v>
       </c>
       <c r="K79" s="2">
-        <v>10.969999999999999</v>
+        <v>11.100000000000001</v>
       </c>
       <c r="L79" s="2">
-        <v>0.93479999999999996</v>
+        <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="B80" s="2">
-        <v>3.71</v>
+        <v>3.21</v>
       </c>
       <c r="C80" s="2">
-        <v>10.36</v>
+        <v>6.11</v>
       </c>
       <c r="D80" s="2">
-        <v>12.5</v>
+        <v>11.37</v>
       </c>
       <c r="E80" s="2">
-        <v>0.46</v>
+        <v>1.2</v>
       </c>
       <c r="F80" s="2">
-        <v>2.08</v>
+        <v>2.67</v>
       </c>
       <c r="G80" s="2">
-        <v>1.59</v>
+        <v>0.89</v>
       </c>
       <c r="H80" s="2">
-        <v>14.89</v>
+        <v>15.71</v>
       </c>
       <c r="I80" s="2">
-        <v>4.0599999999999996</v>
+        <v>2.59</v>
       </c>
       <c r="J80" s="2">
-        <v>10.830000000000002</v>
+        <v>13.120000000000001</v>
       </c>
       <c r="K80" s="2">
-        <v>10.830000000000002</v>
+        <v>13.120000000000001</v>
       </c>
       <c r="L80" s="2">
-        <v>0.87180000000000002</v>
+        <v>0.92610000000000003</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B81" s="2">
-        <v>2.04</v>
+        <v>2.37</v>
       </c>
       <c r="C81" s="2">
-        <v>5.86</v>
+        <v>10.01</v>
       </c>
       <c r="D81" s="2">
-        <v>8</v>
+        <v>8.86</v>
       </c>
       <c r="E81" s="2">
-        <v>6.45</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="F81" s="2">
-        <v>2.59</v>
+        <v>1.89</v>
       </c>
       <c r="G81" s="2">
-        <v>1.04</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="H81" s="2">
-        <v>12.9</v>
+        <v>15.74</v>
       </c>
       <c r="I81" s="2">
-        <v>2.13</v>
+        <v>1.84</v>
       </c>
       <c r="J81" s="2">
-        <v>10.77</v>
+        <v>13.9</v>
       </c>
       <c r="K81" s="2">
-        <v>10.77</v>
+        <v>13.9</v>
       </c>
       <c r="L81" s="2">
-        <v>0.91100000000000003</v>
+        <v>0.84330000000000005</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B82" s="2">
-        <v>4.3</v>
+        <v>1.66</v>
       </c>
       <c r="C82" s="2">
-        <v>11.47</v>
+        <v>8.27</v>
       </c>
       <c r="D82" s="2">
-        <v>11.48</v>
+        <v>30.24</v>
       </c>
       <c r="E82" s="2">
-        <v>2.16</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F82" s="2">
-        <v>4.3899999999999997</v>
+        <v>1.35</v>
       </c>
       <c r="G82" s="2">
-        <v>1.3</v>
+        <v>0.67</v>
       </c>
       <c r="H82" s="2">
-        <v>16.149999999999999</v>
+        <v>28.92</v>
       </c>
       <c r="I82" s="2">
-        <v>5.42</v>
+        <v>2.5</v>
       </c>
       <c r="J82" s="2">
-        <v>10.729999999999999</v>
+        <v>26.42</v>
       </c>
       <c r="K82" s="2">
-        <v>10.729999999999999</v>
+        <v>26.42</v>
       </c>
       <c r="L82" s="2">
-        <v>0.93410000000000004</v>
+        <v>0.88859999999999995</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2">
-        <v>4.6500000000000004</v>
+        <v>2.15</v>
       </c>
       <c r="C83" s="2">
-        <v>11.09</v>
+        <v>8.44</v>
       </c>
       <c r="D83" s="2">
-        <v>12.11</v>
+        <v>7.74</v>
       </c>
       <c r="E83" s="2">
-        <v>2.78</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F83" s="2">
-        <v>4.5199999999999996</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="G83" s="2">
-        <v>1.69</v>
+        <v>0.63</v>
       </c>
       <c r="H83" s="2">
-        <v>15.46</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="I83" s="2">
-        <v>5.03</v>
+        <v>1.8</v>
       </c>
       <c r="J83" s="2">
-        <v>10.43</v>
+        <v>15.779999999999998</v>
       </c>
       <c r="K83" s="2">
-        <v>10.43</v>
+        <v>15.779999999999998</v>
       </c>
       <c r="L83" s="2">
-        <v>0.9244</v>
+        <v>0.91469999999999996</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B84" s="2">
-        <v>3.83</v>
+        <v>1.73</v>
       </c>
       <c r="C84" s="2">
-        <v>10.17</v>
+        <v>7.33</v>
       </c>
       <c r="D84" s="2">
-        <v>11.82</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="E84" s="2">
-        <v>0.77</v>
+        <v>1.06</v>
       </c>
       <c r="F84" s="2">
-        <v>3.35</v>
+        <v>1.5</v>
       </c>
       <c r="G84" s="2">
-        <v>1.59</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="H84" s="2">
-        <v>15.04</v>
+        <v>18.2</v>
       </c>
       <c r="I84" s="2">
-        <v>4.6100000000000003</v>
+        <v>1.69</v>
       </c>
       <c r="J84" s="2">
-        <v>10.43</v>
+        <v>16.509999999999998</v>
       </c>
       <c r="K84" s="2">
-        <v>10.43</v>
+        <v>16.509999999999998</v>
       </c>
       <c r="L84" s="2">
-        <v>0.92749999999999999</v>
+        <v>0.90490000000000004</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="B85" s="2">
-        <v>4.05</v>
+        <v>3.41</v>
       </c>
       <c r="C85" s="2">
-        <v>9.44</v>
+        <v>8.58</v>
       </c>
       <c r="D85" s="2">
-        <v>13.39</v>
+        <v>6.57</v>
       </c>
       <c r="E85" s="2">
-        <v>3.26</v>
+        <v>1.02</v>
       </c>
       <c r="F85" s="2">
-        <v>2.5099999999999998</v>
+        <v>1.49</v>
       </c>
       <c r="G85" s="2">
-        <v>0.89</v>
+        <v>4.26</v>
       </c>
       <c r="H85" s="2">
-        <v>16.14</v>
+        <v>17.55</v>
       </c>
       <c r="I85" s="2">
-        <v>5.72</v>
+        <v>4.32</v>
       </c>
       <c r="J85" s="2">
-        <v>10.420000000000002</v>
+        <v>13.23</v>
       </c>
       <c r="K85" s="2">
-        <v>10.420000000000002</v>
+        <v>13.23</v>
       </c>
       <c r="L85" s="2">
-        <v>0.9425</v>
+        <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B86" s="2">
-        <v>3.42</v>
+        <v>3.04</v>
       </c>
       <c r="C86" s="2">
-        <v>10.35</v>
+        <v>9.81</v>
       </c>
       <c r="D86" s="2">
-        <v>11.04</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E86" s="2">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="F86" s="2">
-        <v>3.24</v>
+        <v>2.21</v>
       </c>
       <c r="G86" s="2">
-        <v>1.05</v>
+        <v>2.21</v>
       </c>
       <c r="H86" s="2">
-        <v>15.18</v>
+        <v>14.94</v>
       </c>
       <c r="I86" s="2">
-        <v>5.12</v>
+        <v>4.91</v>
       </c>
       <c r="J86" s="2">
-        <v>10.059999999999999</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="K86" s="2">
-        <v>10.059999999999999</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="L86" s="2">
-        <v>0.94350000000000001</v>
+        <v>0.89049999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B87" s="2">
-        <v>3.04</v>
+        <v>5.19</v>
       </c>
       <c r="C87" s="2">
-        <v>9.81</v>
+        <v>10.98</v>
       </c>
       <c r="D87" s="2">
-        <v>9.6999999999999993</v>
+        <v>12.81</v>
       </c>
       <c r="E87" s="2">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="F87" s="2">
-        <v>2.21</v>
+        <v>1.78</v>
       </c>
       <c r="G87" s="2">
-        <v>2.21</v>
+        <v>1.57</v>
       </c>
       <c r="H87" s="2">
-        <v>14.94</v>
+        <v>16.53</v>
       </c>
       <c r="I87" s="2">
-        <v>4.91</v>
+        <v>4.16</v>
       </c>
       <c r="J87" s="2">
-        <v>10.029999999999999</v>
+        <v>12.370000000000001</v>
       </c>
       <c r="K87" s="2">
-        <v>10.029999999999999</v>
+        <v>12.370000000000001</v>
       </c>
       <c r="L87" s="2">
-        <v>0.89049999999999996</v>
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B88" s="2">
-        <v>1.71</v>
+        <v>2.72</v>
       </c>
       <c r="C88" s="2">
-        <v>12.48</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="D88" s="2">
-        <v>17.04</v>
+        <v>7.59</v>
       </c>
       <c r="E88" s="2">
-        <v>2.38</v>
+        <v>0.88</v>
       </c>
       <c r="F88" s="2">
-        <v>6.28</v>
+        <v>0.36</v>
       </c>
       <c r="G88" s="2">
-        <v>0.62</v>
+        <v>3.79</v>
       </c>
       <c r="H88" s="2">
-        <v>15.84</v>
+        <v>15.76</v>
       </c>
       <c r="I88" s="2">
-        <v>5.87</v>
+        <v>2.42</v>
       </c>
       <c r="J88" s="2">
-        <v>9.9699999999999989</v>
+        <v>13.34</v>
       </c>
       <c r="K88" s="2">
-        <v>9.9699999999999989</v>
+        <v>13.34</v>
       </c>
       <c r="L88" s="2">
-        <v>0.8125</v>
+        <v>0.90710000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B89" s="2">
-        <v>3.99</v>
+        <v>3.35</v>
       </c>
       <c r="C89" s="2">
-        <v>10.51</v>
+        <v>9.76</v>
       </c>
       <c r="D89" s="2">
-        <v>12.36</v>
+        <v>11.1</v>
       </c>
       <c r="E89" s="2">
-        <v>2.58</v>
+        <v>0.87</v>
       </c>
       <c r="F89" s="2">
-        <v>4.03</v>
+        <v>3.37</v>
       </c>
       <c r="G89" s="2">
-        <v>1.22</v>
+        <v>0.86</v>
       </c>
       <c r="H89" s="2">
-        <v>15.01</v>
+        <v>15.09</v>
       </c>
       <c r="I89" s="2">
-        <v>5.04</v>
+        <v>5.38</v>
       </c>
       <c r="J89" s="2">
-        <v>9.9699999999999989</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="K89" s="2">
-        <v>9.9699999999999989</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="L89" s="2">
-        <v>0.92190000000000005</v>
+        <v>0.94169999999999998</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B90" s="2">
-        <v>9.6300000000000008</v>
+        <v>1.43</v>
       </c>
       <c r="C90" s="2">
-        <v>10.28</v>
+        <v>7.33</v>
       </c>
       <c r="D90" s="2">
-        <v>11.35</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="E90" s="2">
-        <v>5.12</v>
+        <v>0.82</v>
       </c>
       <c r="F90" s="2">
-        <v>4.6399999999999997</v>
+        <v>0.9</v>
       </c>
       <c r="G90" s="2">
-        <v>1.5</v>
+        <v>2.21</v>
       </c>
       <c r="H90" s="2">
-        <v>16.690000000000001</v>
+        <v>21.43</v>
       </c>
       <c r="I90" s="2">
-        <v>6.75</v>
+        <v>3.13</v>
       </c>
       <c r="J90" s="2">
-        <v>9.9400000000000013</v>
+        <v>18.3</v>
       </c>
       <c r="K90" s="2">
-        <v>9.9400000000000013</v>
+        <v>18.3</v>
       </c>
       <c r="L90" s="2">
-        <v>0.93700000000000006</v>
+        <v>0.82230000000000003</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="B91" s="2">
-        <v>4.3</v>
+        <v>3.81</v>
       </c>
       <c r="C91" s="2">
-        <v>11.16</v>
+        <v>10.58</v>
       </c>
       <c r="D91" s="2">
-        <v>13.94</v>
+        <v>11.9</v>
       </c>
       <c r="E91" s="2">
-        <v>1.5</v>
+        <v>0.81</v>
       </c>
       <c r="F91" s="2">
-        <v>5.17</v>
+        <v>3.19</v>
       </c>
       <c r="G91" s="2">
-        <v>0.95</v>
+        <v>0.62</v>
       </c>
       <c r="H91" s="2">
-        <v>15.58</v>
+        <v>15.53</v>
       </c>
       <c r="I91" s="2">
-        <v>5.68</v>
+        <v>4.33</v>
       </c>
       <c r="J91" s="2">
-        <v>9.9</v>
+        <v>11.2</v>
       </c>
       <c r="K91" s="2">
-        <v>9.9</v>
+        <v>11.2</v>
       </c>
       <c r="L91" s="2">
-        <v>0.93600000000000005</v>
+        <v>0.92400000000000004</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B92" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="C92" s="2">
+        <v>10.17</v>
+      </c>
+      <c r="D92" s="2">
+        <v>11.82</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="F92" s="2">
         <v>3.35</v>
       </c>
-      <c r="C92" s="2">
-        <v>9.76</v>
-      </c>
-      <c r="D92" s="2">
-        <v>11.1</v>
-      </c>
-      <c r="E92" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="F92" s="2">
-        <v>3.37</v>
-      </c>
       <c r="G92" s="2">
-        <v>0.86</v>
+        <v>1.59</v>
       </c>
       <c r="H92" s="2">
-        <v>15.09</v>
+        <v>15.04</v>
       </c>
       <c r="I92" s="2">
-        <v>5.38</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="J92" s="2">
-        <v>9.7100000000000009</v>
+        <v>10.43</v>
       </c>
       <c r="K92" s="2">
-        <v>9.7100000000000009</v>
+        <v>10.43</v>
       </c>
       <c r="L92" s="2">
-        <v>0.94169999999999998</v>
+        <v>0.92749999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>3.59</v>
+        <v>5.15</v>
       </c>
       <c r="C93" s="2">
-        <v>10.9</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="D93" s="2">
-        <v>13.22</v>
+        <v>10.99</v>
       </c>
       <c r="E93" s="2">
-        <v>3.37</v>
+        <v>0.77</v>
       </c>
       <c r="F93" s="2">
-        <v>4.17</v>
+        <v>3.7</v>
       </c>
       <c r="G93" s="2">
-        <v>0.77</v>
+        <v>1.46</v>
       </c>
       <c r="H93" s="2">
-        <v>13.97</v>
+        <v>14.74</v>
       </c>
       <c r="I93" s="2">
-        <v>4.41</v>
+        <v>2.36</v>
       </c>
       <c r="J93" s="2">
-        <v>9.56</v>
+        <v>12.38</v>
       </c>
       <c r="K93" s="2">
-        <v>9.56</v>
+        <v>12.38</v>
       </c>
       <c r="L93" s="2">
-        <v>0.93879999999999997</v>
+        <v>0.84150000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>2.5099999999999998</v>
+        <v>3.03</v>
       </c>
       <c r="C94" s="2">
-        <v>10.19</v>
+        <v>9.24</v>
       </c>
       <c r="D94" s="2">
-        <v>10.93</v>
+        <v>4.04</v>
       </c>
       <c r="E94" s="2">
-        <v>3.33</v>
+        <v>0.73</v>
       </c>
       <c r="F94" s="2">
-        <v>4.37</v>
+        <v>1.63</v>
       </c>
       <c r="G94" s="2">
-        <v>0.56000000000000005</v>
+        <v>2.08</v>
       </c>
       <c r="H94" s="2">
-        <v>12.69</v>
+        <v>15.14</v>
       </c>
       <c r="I94" s="2">
-        <v>4.3899999999999997</v>
+        <v>3.52</v>
       </c>
       <c r="J94" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.620000000000001</v>
       </c>
       <c r="K94" s="2">
-        <v>8.3000000000000007</v>
+        <v>11.620000000000001</v>
       </c>
       <c r="L94" s="2">
-        <v>0.93769999999999998</v>
+        <v>0.91910000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B95" s="2">
-        <v>3.43</v>
+        <v>3.04</v>
       </c>
       <c r="C95" s="2">
-        <v>9.76</v>
+        <v>13.74</v>
       </c>
       <c r="D95" s="2">
-        <v>10.58</v>
+        <v>10.85</v>
       </c>
       <c r="E95" s="2">
-        <v>2.3199999999999998</v>
+        <v>0.66</v>
       </c>
       <c r="F95" s="2">
-        <v>2.7</v>
+        <v>3.09</v>
       </c>
       <c r="G95" s="2">
-        <v>2.3199999999999998</v>
+        <v>1.29</v>
       </c>
       <c r="H95" s="2">
-        <v>15.94</v>
+        <v>16.57</v>
       </c>
       <c r="I95" s="2">
-        <v>7.66</v>
+        <v>4.42</v>
       </c>
       <c r="J95" s="2">
-        <v>8.2799999999999994</v>
+        <v>12.15</v>
       </c>
       <c r="K95" s="2">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="L95" s="2">
-        <v>0.93469999999999998</v>
+        <v>12.15</v>
+      </c>
+      <c r="L95" s="2" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B96" s="2">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
       <c r="C96" s="2">
-        <v>10.87</v>
+        <v>10.35</v>
       </c>
       <c r="D96" s="2">
-        <v>11.15</v>
+        <v>11.04</v>
       </c>
       <c r="E96" s="2">
-        <v>2.4700000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="F96" s="2">
-        <v>4.9400000000000004</v>
+        <v>3.24</v>
       </c>
       <c r="G96" s="2">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="H96" s="2">
-        <v>12.79</v>
+        <v>15.18</v>
       </c>
       <c r="I96" s="2">
-        <v>4.78</v>
+        <v>5.12</v>
       </c>
       <c r="J96" s="2">
-        <v>8.009999999999998</v>
+        <v>10.059999999999999</v>
       </c>
       <c r="K96" s="2">
-        <v>8.009999999999998</v>
+        <v>10.059999999999999</v>
       </c>
       <c r="L96" s="2">
-        <v>0.92390000000000005</v>
+        <v>0.94350000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B97" s="2">
-        <v>4.4000000000000004</v>
+        <v>3.66</v>
       </c>
       <c r="C97" s="2">
-        <v>10.65</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="D97" s="2">
-        <v>9.07</v>
+        <v>10.09</v>
       </c>
       <c r="E97" s="2">
-        <v>2.35</v>
+        <v>0.62</v>
       </c>
       <c r="F97" s="2">
-        <v>6.41</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G97" s="2">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="H97" s="2">
-        <v>15.11</v>
+        <v>15.96</v>
       </c>
       <c r="I97" s="2">
-        <v>7.82</v>
+        <v>1.74</v>
       </c>
       <c r="J97" s="2">
-        <v>7.2899999999999991</v>
+        <v>14.22</v>
       </c>
       <c r="K97" s="2">
-        <v>7.2899999999999991</v>
+        <v>14.22</v>
       </c>
       <c r="L97" s="2">
-        <v>0.94240000000000002</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B98" s="2">
-        <v>1.88</v>
+        <v>3.68</v>
       </c>
       <c r="C98" s="2">
-        <v>11.56</v>
+        <v>10.08</v>
       </c>
       <c r="D98" s="2">
-        <v>10.92</v>
+        <v>10.57</v>
       </c>
       <c r="E98" s="2">
-        <v>6.57</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F98" s="2">
-        <v>7.78</v>
+        <v>3.6</v>
       </c>
       <c r="G98" s="2">
-        <v>2.39</v>
+        <v>1.3</v>
       </c>
       <c r="H98" s="2">
-        <v>15.03</v>
+        <v>16.7</v>
       </c>
       <c r="I98" s="2">
-        <v>7.75</v>
+        <v>4.13</v>
       </c>
       <c r="J98" s="2">
-        <v>7.2799999999999994</v>
+        <v>12.57</v>
       </c>
       <c r="K98" s="2">
-        <v>7.2799999999999994</v>
+        <v>12.57</v>
       </c>
       <c r="L98" s="2">
-        <v>0.92090000000000005</v>
+        <v>0.90329999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B99" s="2">
-        <v>0</v>
+        <v>3.71</v>
       </c>
       <c r="C99" s="2">
-        <v>0</v>
+        <v>10.36</v>
       </c>
       <c r="D99" s="2">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="E99" s="2">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="F99" s="2">
-        <v>4.0999999999999996</v>
+        <v>2.08</v>
       </c>
       <c r="G99" s="2">
-        <v>1.2</v>
+        <v>1.59</v>
       </c>
       <c r="H99" s="2">
-        <v>0.67</v>
+        <v>14.89</v>
       </c>
       <c r="I99" s="2">
-        <v>3.51</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="J99" s="2">
-        <v>-2.84</v>
+        <v>10.830000000000002</v>
       </c>
       <c r="K99" s="2">
-        <v>2.84</v>
+        <v>10.830000000000002</v>
       </c>
       <c r="L99" s="2">
-        <v>-1.8655999999999999</v>
+        <v>0.87180000000000002</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B100" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="C100" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="D100" s="2">
+        <v>10.73</v>
+      </c>
+      <c r="E100" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="G100" s="2">
         <v>0</v>
       </c>
-      <c r="C100" s="2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D100" s="2">
-        <v>7.83</v>
-      </c>
-      <c r="E100" s="2">
-        <v>6.04</v>
-      </c>
-      <c r="F100" s="2">
-        <v>5.26</v>
-      </c>
-      <c r="G100" s="2">
-        <v>0.63</v>
-      </c>
       <c r="H100" s="2">
-        <v>6.32</v>
+        <v>24.01</v>
       </c>
       <c r="I100" s="2">
-        <v>4.1500000000000004</v>
+        <v>0</v>
       </c>
       <c r="J100" s="2">
-        <v>2.17</v>
+        <v>24.01</v>
       </c>
       <c r="K100" s="2">
-        <v>2.17</v>
+        <v>24.01</v>
       </c>
       <c r="L100" s="2">
-        <v>0.94179999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="B101" s="2">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="C101" s="2">
-        <v>4.0999999999999996</v>
+        <v>0.67</v>
       </c>
       <c r="D101" s="2">
-        <v>7.83</v>
+        <v>0.93</v>
       </c>
       <c r="E101" s="2">
-        <v>6.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F101" s="2">
-        <v>5.26</v>
+        <v>0.35</v>
       </c>
       <c r="G101" s="2">
-        <v>1.73</v>
+        <v>15.66</v>
       </c>
       <c r="H101" s="2">
-        <v>6.32</v>
+        <v>1.06</v>
       </c>
       <c r="I101" s="2">
-        <v>4.1500000000000004</v>
+        <v>17.21</v>
       </c>
       <c r="J101" s="2">
-        <v>2.17</v>
+        <v>-16.150000000000002</v>
       </c>
       <c r="K101" s="2">
-        <v>2.17</v>
+        <v>16.150000000000002</v>
       </c>
       <c r="L101" s="2">
-        <v>0.94179999999999997</v>
+        <v>-0.20039999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B102" s="2">
         <v>0</v>
@@ -18556,30 +18556,30 @@
         <v>0</v>
       </c>
       <c r="F102" s="2">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G102" s="2">
-        <v>5.84</v>
+        <v>1.2</v>
       </c>
       <c r="H102" s="2">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="I102" s="2">
-        <v>1.82</v>
+        <v>3.51</v>
       </c>
       <c r="J102" s="2">
-        <v>-1.82</v>
+        <v>-2.84</v>
       </c>
       <c r="K102" s="2">
-        <v>1.82</v>
+        <v>2.84</v>
       </c>
       <c r="L102" s="2">
-        <v>-0.113</v>
+        <v>-1.8655999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B103" s="2">
         <v>0</v>
@@ -18597,27 +18597,27 @@
         <v>0</v>
       </c>
       <c r="G103" s="2">
-        <v>1.55</v>
+        <v>5.84</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
       </c>
       <c r="I103" s="2">
-        <v>1.17</v>
+        <v>1.82</v>
       </c>
       <c r="J103" s="2">
-        <v>-1.17</v>
+        <v>-1.82</v>
       </c>
       <c r="K103" s="2">
-        <v>1.17</v>
+        <v>1.82</v>
       </c>
       <c r="L103" s="2">
-        <v>-0.29930000000000001</v>
+        <v>-0.113</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B104" s="2">
         <v>0</v>
@@ -18626,37 +18626,37 @@
         <v>0</v>
       </c>
       <c r="D104" s="2">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="E104" s="2">
-        <v>2.2799999999999998</v>
+        <v>0</v>
       </c>
       <c r="F104" s="2">
-        <v>2.5099999999999998</v>
+        <v>0</v>
       </c>
       <c r="G104" s="2">
-        <v>2.62</v>
+        <v>1.55</v>
       </c>
       <c r="H104" s="2">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="I104" s="2">
-        <v>3.67</v>
+        <v>1.17</v>
       </c>
       <c r="J104" s="2">
-        <v>-0.89999999999999991</v>
+        <v>-1.17</v>
       </c>
       <c r="K104" s="2">
-        <v>0.89999999999999991</v>
+        <v>1.17</v>
       </c>
       <c r="L104" s="2">
-        <v>-2.1861000000000002</v>
+        <v>-0.29930000000000001</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L104" xr:uid="{CDF34DA4-C6EA-4593-B988-6F5C81F56E45}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L104">
-      <sortCondition descending="1" ref="K1:K104"/>
+      <sortCondition descending="1" ref="E1:E104"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
